--- a/Outputs/Tables/Table2_CovidDrop (Year).xlsx
+++ b/Outputs/Tables/Table2_CovidDrop (Year).xlsx
@@ -532,9 +532,7 @@
       <c r="F5" t="n">
         <v>-6.9</v>
       </c>
-      <c r="G5" t="n">
-        <v>-98.3</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
